--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -49,111 +49,108 @@
     <t>however</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
     <t>guess</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>paint</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>di</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>though</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
@@ -184,22 +181,25 @@
     <t>great</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
@@ -566,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,7 +574,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s">
         <v>64</v>
@@ -656,16 +656,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3">
+        <v>0.875</v>
+      </c>
+      <c r="L3">
         <v>49</v>
       </c>
-      <c r="K3">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L3">
-        <v>48</v>
-      </c>
       <c r="M3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -685,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4">
-        <v>0.8307692307692308</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,37 +735,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>48</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D5">
-        <v>50</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>14</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="K5">
-        <v>0.6881720430107527</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="L5">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M5">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -785,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7605633802816901</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="D6">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K6">
-        <v>0.6037735849056604</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7378640776699029</v>
+        <v>0.6891891891891891</v>
       </c>
       <c r="C7">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="D7">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K7">
-        <v>0.5</v>
+        <v>0.515625</v>
       </c>
       <c r="L7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7258064516129032</v>
+        <v>0.6844660194174758</v>
       </c>
       <c r="C8">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D8">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K8">
-        <v>0.391304347826087</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="L8">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7105263157894737</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9">
-        <v>0.3467213114754099</v>
+        <v>0.3336065573770492</v>
       </c>
       <c r="L9">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="M9">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>797</v>
+        <v>813</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6904761904761905</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K10">
-        <v>0.2883817427385892</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="L10">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="M10">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>343</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1035,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6756756756756757</v>
+        <v>0.625</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K11">
-        <v>0.2855093256814921</v>
+        <v>0.2655601659751037</v>
       </c>
       <c r="L11">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="M11">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>498</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6571428571428571</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K12">
-        <v>0.225</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="L12">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,13 +1135,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6050420168067226</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C13">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K13">
         <v>0.2168674698795181</v>
@@ -1185,13 +1185,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5818181818181818</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C14">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1203,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K14">
-        <v>0.1804281345565749</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L14">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="M14">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>268</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1235,13 +1235,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5416666666666666</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1253,19 +1253,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K15">
-        <v>0.1428571428571428</v>
+        <v>0.1651376146788991</v>
       </c>
       <c r="L15">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="M15">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>162</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1285,13 +1285,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5043478260869565</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C16">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K16">
-        <v>0.08501314636283962</v>
+        <v>0.09236947791164658</v>
       </c>
       <c r="L16">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="M16">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1044</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1335,13 +1335,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4888888888888889</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1353,19 +1353,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K17">
-        <v>0.0317975340687865</v>
+        <v>0.08238387379491674</v>
       </c>
       <c r="L17">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1492</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1385,13 +1385,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4814814814814815</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1403,7 +1403,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18">
+        <v>0.0285899935022742</v>
+      </c>
+      <c r="L18">
+        <v>44</v>
+      </c>
+      <c r="M18">
+        <v>46</v>
+      </c>
+      <c r="N18">
+        <v>0.96</v>
+      </c>
+      <c r="O18">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1495</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1411,13 +1435,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4285714285714285</v>
+        <v>0.4</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1429,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1437,13 +1461,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.421875</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1455,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1463,13 +1487,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4173228346456693</v>
+        <v>0.3858267716535433</v>
       </c>
       <c r="C21">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D21">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1481,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1489,13 +1513,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3855421686746988</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D22">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1507,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1515,13 +1539,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3684210526315789</v>
+        <v>0.359375</v>
       </c>
       <c r="C23">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1533,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1541,13 +1565,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3515625</v>
+        <v>0.359375</v>
       </c>
       <c r="C24">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D24">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1559,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1567,13 +1591,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3217821782178218</v>
+        <v>0.2890995260663507</v>
       </c>
       <c r="C25">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D25">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1585,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1593,13 +1617,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2938388625592417</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="C26">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D26">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1611,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1619,13 +1643,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2808988764044944</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1637,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1645,13 +1669,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.264957264957265</v>
+        <v>0.2216494845360825</v>
       </c>
       <c r="C28">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D28">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1663,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>86</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1671,13 +1695,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.211340206185567</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="C29">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D29">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1689,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>153</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1697,13 +1721,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1691394658753709</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C30">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="D30">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1715,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>560</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1723,13 +1747,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1666666666666667</v>
+        <v>0.1676557863501484</v>
       </c>
       <c r="C31">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="D31">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1741,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>230</v>
+        <v>561</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1775,13 +1799,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1582278481012658</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C33">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D33">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1793,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>266</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1801,13 +1825,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1497797356828194</v>
+        <v>0.1343612334801762</v>
       </c>
       <c r="C34">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D34">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1819,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1827,13 +1851,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1355140186915888</v>
+        <v>0.1214953271028037</v>
       </c>
       <c r="C35">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D35">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1845,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1853,13 +1877,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1314285714285714</v>
+        <v>0.1120689655172414</v>
       </c>
       <c r="C36">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D36">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1871,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>152</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1879,13 +1903,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.115</v>
+        <v>0.1008064516129032</v>
       </c>
       <c r="C37">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D37">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1897,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>177</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1905,13 +1929,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1063218390804598</v>
+        <v>0.09315068493150686</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D38">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1923,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>311</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1931,13 +1955,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.101123595505618</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="C39">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D39">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1949,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1957,13 +1981,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07945205479452055</v>
+        <v>0.05427631578947369</v>
       </c>
       <c r="C40">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D40">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1975,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>336</v>
+        <v>575</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1983,51 +2007,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0642504118616145</v>
+        <v>0.05122494432071269</v>
       </c>
       <c r="C41">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D41">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E41">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42">
-        <v>0.0534521158129176</v>
-      </c>
-      <c r="C42">
-        <v>24</v>
-      </c>
-      <c r="D42">
-        <v>24</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
